--- a/static/cuti.xlsx
+++ b/static/cuti.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,51 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\# REGISTRASI DAN STATISTIK\Website\202101\202101\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{948C7F3C-04BC-437F-8262-E4FA2026FFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2655A-1197-40E4-A319-469AA10CEEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cuti" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>FAKULTAS</t>
+    <t>1_Hukum</t>
   </si>
   <si>
-    <t>Hukum</t>
+    <t>2_FKIP</t>
   </si>
   <si>
-    <t>FKIP</t>
+    <t>3_Teknik</t>
   </si>
   <si>
-    <t>Teknik</t>
+    <t>4_Pertanian</t>
   </si>
   <si>
-    <t>Pertanian</t>
+    <t>5_FEB</t>
   </si>
   <si>
-    <t>FEB</t>
+    <t>6_FISIP</t>
   </si>
   <si>
-    <t>FISIP</t>
+    <t>7_Pascasarjana</t>
   </si>
   <si>
-    <t>Kedokteran</t>
+    <t>8_Kedokteran</t>
   </si>
   <si>
-    <t>Pascasarjana</t>
+    <t>Fakultas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -886,152 +886,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2014</v>
-      </c>
-      <c r="C1">
-        <v>2015</v>
-      </c>
-      <c r="D1">
-        <v>2016</v>
-      </c>
-      <c r="E1">
-        <v>2017</v>
-      </c>
-      <c r="F1">
-        <v>2018</v>
-      </c>
-      <c r="G1">
-        <v>2019</v>
+      <c r="F2">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="C6">
         <v>2</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
       <c r="E9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/static/cuti.xlsx
+++ b/static/cuti.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\# REGISTRASI DAN STATISTIK\Website\202101\202101\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2655A-1197-40E4-A319-469AA10CEEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D4871D-D88E-4D7B-8FF3-6F7A11829B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>3</v>
